--- a/attendance-files/SM-II/SM-II (E) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (E) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="172">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1640,12 +1640,20 @@
       <c r="L7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="30"/>
+      <c r="M7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="P7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
@@ -1676,7 +1684,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1696,12 +1704,20 @@
       <c r="L8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="35"/>
+      <c r="M8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N8" s="35"/>
       <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
+      <c r="P8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
@@ -1728,11 +1744,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>21</v>
@@ -1752,12 +1768,20 @@
       <c r="L9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="35"/>
+      <c r="M9" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
+      <c r="P9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
@@ -1788,7 +1812,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1808,12 +1832,20 @@
       <c r="L10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="35"/>
+      <c r="M10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
+      <c r="P10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
@@ -1844,7 +1876,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1864,12 +1896,20 @@
       <c r="L11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="35"/>
+      <c r="M11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
+      <c r="P11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
       <c r="U11" s="35"/>
@@ -1896,11 +1936,11 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -1920,12 +1960,20 @@
       <c r="L12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="35"/>
+      <c r="M12" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
+      <c r="P12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
       <c r="U12" s="35"/>
@@ -1952,11 +2000,11 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -1976,12 +2024,20 @@
       <c r="L13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="35"/>
+      <c r="M13" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
+      <c r="P13" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
@@ -2012,7 +2068,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2032,12 +2088,20 @@
       <c r="L14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="35"/>
+      <c r="M14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
+      <c r="P14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
@@ -2064,11 +2128,11 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2088,12 +2152,20 @@
       <c r="L15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="35"/>
+      <c r="M15" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
+      <c r="P15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
       <c r="U15" s="35"/>
@@ -2120,11 +2192,11 @@
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2144,12 +2216,20 @@
       <c r="L16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="35"/>
+      <c r="M16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N16" s="35"/>
       <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
+      <c r="P16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
       <c r="U16" s="35"/>
@@ -2176,11 +2256,11 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2200,12 +2280,20 @@
       <c r="L17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="35"/>
+      <c r="M17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
+      <c r="P17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S17" s="35"/>
       <c r="T17" s="35"/>
       <c r="U17" s="35"/>
@@ -2232,11 +2320,11 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2256,12 +2344,20 @@
       <c r="L18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="35"/>
+      <c r="M18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
+      <c r="P18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S18" s="35"/>
       <c r="T18" s="35"/>
       <c r="U18" s="35"/>
@@ -2288,11 +2384,11 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>20</v>
@@ -2312,12 +2408,20 @@
       <c r="L19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="35"/>
+      <c r="M19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N19" s="35"/>
       <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
+      <c r="P19" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S19" s="35"/>
       <c r="T19" s="35"/>
       <c r="U19" s="35"/>
@@ -2344,11 +2448,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2368,12 +2472,20 @@
       <c r="L20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="35"/>
+      <c r="M20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N20" s="35"/>
       <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
+      <c r="P20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
       <c r="U20" s="35"/>
@@ -2400,11 +2512,11 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>20</v>
@@ -2424,12 +2536,20 @@
       <c r="L21" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="35"/>
+      <c r="M21" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
+      <c r="P21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35"/>
@@ -2460,7 +2580,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2480,12 +2600,20 @@
       <c r="L22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="35"/>
+      <c r="M22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N22" s="35"/>
       <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
+      <c r="P22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
       <c r="U22" s="35"/>
@@ -2512,11 +2640,11 @@
       </c>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2536,12 +2664,20 @@
       <c r="L23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="35"/>
+      <c r="M23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N23" s="35"/>
       <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
+      <c r="P23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S23" s="35"/>
       <c r="T23" s="35"/>
       <c r="U23" s="35"/>
@@ -2572,7 +2708,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2592,12 +2728,20 @@
       <c r="L24" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="35"/>
+      <c r="M24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N24" s="35"/>
       <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
+      <c r="P24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
       <c r="U24" s="35"/>
@@ -2624,11 +2768,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -2648,12 +2792,20 @@
       <c r="L25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="35"/>
+      <c r="M25" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N25" s="35"/>
       <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
+      <c r="P25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
       <c r="U25" s="35"/>
@@ -2680,11 +2832,11 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -2704,12 +2856,20 @@
       <c r="L26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="35"/>
+      <c r="M26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N26" s="35"/>
       <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
+      <c r="P26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S26" s="35"/>
       <c r="T26" s="35"/>
       <c r="U26" s="35"/>
@@ -2740,7 +2900,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -2760,12 +2920,20 @@
       <c r="L27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M27" s="35"/>
+      <c r="M27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
+      <c r="P27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
       <c r="U27" s="35"/>
@@ -2792,11 +2960,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>20</v>
@@ -2816,12 +2984,20 @@
       <c r="L28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="35"/>
+      <c r="M28" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
+      <c r="P28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
       <c r="U28" s="35"/>
@@ -2848,11 +3024,11 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -2872,12 +3048,20 @@
       <c r="L29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M29" s="35"/>
+      <c r="M29" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
+      <c r="P29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
@@ -2904,11 +3088,11 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>21</v>
@@ -2928,12 +3112,20 @@
       <c r="L30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="35"/>
+      <c r="M30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
+      <c r="P30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
@@ -2964,7 +3156,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -2984,12 +3176,20 @@
       <c r="L31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="35"/>
+      <c r="M31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N31" s="35"/>
       <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
+      <c r="P31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S31" s="35"/>
       <c r="T31" s="35"/>
       <c r="U31" s="35"/>
@@ -3020,7 +3220,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -3040,12 +3240,20 @@
       <c r="L32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M32" s="35"/>
+      <c r="M32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N32" s="35"/>
       <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
+      <c r="P32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S32" s="35"/>
       <c r="T32" s="35"/>
       <c r="U32" s="35"/>
@@ -3072,11 +3280,11 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>20</v>
@@ -3096,12 +3304,20 @@
       <c r="L33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="35"/>
+      <c r="M33" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
+      <c r="P33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S33" s="35"/>
       <c r="T33" s="35"/>
       <c r="U33" s="35"/>
@@ -3132,7 +3348,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3152,12 +3368,20 @@
       <c r="L34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="35"/>
+      <c r="M34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
+      <c r="P34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S34" s="35"/>
       <c r="T34" s="35"/>
       <c r="U34" s="35"/>
@@ -3184,11 +3408,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>20</v>
@@ -3208,12 +3432,20 @@
       <c r="L35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="35"/>
+      <c r="M35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
+      <c r="P35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S35" s="35"/>
       <c r="T35" s="35"/>
       <c r="U35" s="35"/>
@@ -3240,11 +3472,11 @@
       </c>
       <c r="E36" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3264,12 +3496,20 @@
       <c r="L36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="35"/>
+      <c r="M36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
+      <c r="P36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S36" s="35"/>
       <c r="T36" s="35"/>
       <c r="U36" s="35"/>
@@ -3296,11 +3536,11 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>20</v>
@@ -3320,12 +3560,20 @@
       <c r="L37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M37" s="35"/>
+      <c r="M37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
+      <c r="P37" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S37" s="35"/>
       <c r="T37" s="35"/>
       <c r="U37" s="35"/>
@@ -3356,7 +3604,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>21</v>
@@ -3376,12 +3624,20 @@
       <c r="L38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="35"/>
+      <c r="M38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
+      <c r="P38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S38" s="35"/>
       <c r="T38" s="35"/>
       <c r="U38" s="35"/>
@@ -3408,11 +3664,11 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>20</v>
@@ -3432,12 +3688,20 @@
       <c r="L39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M39" s="35"/>
+      <c r="M39" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
+      <c r="P39" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S39" s="35"/>
       <c r="T39" s="35"/>
       <c r="U39" s="35"/>
@@ -3464,11 +3728,11 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -3488,12 +3752,20 @@
       <c r="L40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M40" s="35"/>
+      <c r="M40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
+      <c r="P40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S40" s="35"/>
       <c r="T40" s="35"/>
       <c r="U40" s="35"/>
@@ -3524,7 +3796,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>21</v>
@@ -3544,12 +3816,20 @@
       <c r="L41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="35"/>
+      <c r="M41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
+      <c r="P41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S41" s="35"/>
       <c r="T41" s="35"/>
       <c r="U41" s="35"/>
@@ -3576,11 +3856,11 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -3600,12 +3880,20 @@
       <c r="L42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="35"/>
+      <c r="M42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
+      <c r="P42" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q42" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S42" s="35"/>
       <c r="T42" s="35"/>
       <c r="U42" s="35"/>
@@ -3632,11 +3920,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>21</v>
@@ -3656,12 +3944,20 @@
       <c r="L43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="35"/>
+      <c r="M43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
+      <c r="P43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S43" s="35"/>
       <c r="T43" s="35"/>
       <c r="U43" s="35"/>
@@ -3692,7 +3988,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -3712,12 +4008,20 @@
       <c r="L44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M44" s="35"/>
+      <c r="M44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
+      <c r="P44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S44" s="35"/>
       <c r="T44" s="35"/>
       <c r="U44" s="35"/>
@@ -3744,11 +4048,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>21</v>
@@ -3768,12 +4072,20 @@
       <c r="L45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="35"/>
+      <c r="M45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
+      <c r="P45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S45" s="35"/>
       <c r="T45" s="35"/>
       <c r="U45" s="35"/>
@@ -3804,7 +4116,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -3824,12 +4136,20 @@
       <c r="L46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M46" s="35"/>
+      <c r="M46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
+      <c r="P46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S46" s="35"/>
       <c r="T46" s="35"/>
       <c r="U46" s="35"/>
@@ -3856,11 +4176,11 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -3880,12 +4200,20 @@
       <c r="L47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M47" s="35"/>
+      <c r="M47" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
+      <c r="P47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S47" s="35"/>
       <c r="T47" s="35"/>
       <c r="U47" s="35"/>
@@ -3912,11 +4240,11 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>20</v>
@@ -3936,12 +4264,20 @@
       <c r="L48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M48" s="35"/>
+      <c r="M48" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
+      <c r="P48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S48" s="35"/>
       <c r="T48" s="35"/>
       <c r="U48" s="35"/>
@@ -3968,11 +4304,11 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>20</v>
@@ -3992,12 +4328,20 @@
       <c r="L49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="35"/>
+      <c r="M49" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
+      <c r="P49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S49" s="35"/>
       <c r="T49" s="35"/>
       <c r="U49" s="35"/>
@@ -4028,7 +4372,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -4048,12 +4392,20 @@
       <c r="L50" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M50" s="35"/>
+      <c r="M50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
+      <c r="P50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S50" s="35"/>
       <c r="T50" s="35"/>
       <c r="U50" s="35"/>
@@ -4080,11 +4432,11 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4104,12 +4456,20 @@
       <c r="L51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M51" s="35"/>
+      <c r="M51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N51" s="35"/>
       <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
+      <c r="P51" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S51" s="35"/>
       <c r="T51" s="35"/>
       <c r="U51" s="35"/>
@@ -4136,11 +4496,11 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>21</v>
@@ -4160,12 +4520,20 @@
       <c r="L52" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="35"/>
+      <c r="M52" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
+      <c r="P52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S52" s="35"/>
       <c r="T52" s="35"/>
       <c r="U52" s="35"/>
@@ -4192,11 +4560,11 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>20</v>
@@ -4216,12 +4584,20 @@
       <c r="L53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M53" s="35"/>
+      <c r="M53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N53" s="35"/>
       <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
+      <c r="P53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S53" s="35"/>
       <c r="T53" s="35"/>
       <c r="U53" s="35"/>
@@ -4252,7 +4628,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4272,12 +4648,20 @@
       <c r="L54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M54" s="35"/>
+      <c r="M54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N54" s="35"/>
       <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
+      <c r="P54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S54" s="35"/>
       <c r="T54" s="35"/>
       <c r="U54" s="35"/>
@@ -4304,11 +4688,11 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>20</v>
@@ -4328,12 +4712,20 @@
       <c r="L55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M55" s="35"/>
+      <c r="M55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N55" s="35"/>
       <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
+      <c r="P55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S55" s="35"/>
       <c r="T55" s="35"/>
       <c r="U55" s="35"/>
@@ -4364,7 +4756,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -4384,12 +4776,20 @@
       <c r="L56" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M56" s="35"/>
+      <c r="M56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N56" s="35"/>
       <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
+      <c r="P56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S56" s="35"/>
       <c r="T56" s="35"/>
       <c r="U56" s="35"/>
@@ -4420,7 +4820,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>20</v>
@@ -4440,12 +4840,20 @@
       <c r="L57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M57" s="35"/>
+      <c r="M57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N57" s="35"/>
       <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
+      <c r="P57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S57" s="35"/>
       <c r="T57" s="35"/>
       <c r="U57" s="35"/>
@@ -4472,11 +4880,11 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>20</v>
@@ -4496,12 +4904,20 @@
       <c r="L58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M58" s="35"/>
+      <c r="M58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N58" s="35"/>
       <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
+      <c r="P58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S58" s="35"/>
       <c r="T58" s="35"/>
       <c r="U58" s="35"/>
@@ -4528,11 +4944,11 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -4552,12 +4968,20 @@
       <c r="L59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M59" s="35"/>
+      <c r="M59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N59" s="35"/>
       <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
+      <c r="P59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R59" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S59" s="35"/>
       <c r="T59" s="35"/>
       <c r="U59" s="35"/>
@@ -4584,11 +5008,11 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -4608,12 +5032,20 @@
       <c r="L60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M60" s="35"/>
+      <c r="M60" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N60" s="35"/>
       <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
+      <c r="P60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S60" s="35"/>
       <c r="T60" s="35"/>
       <c r="U60" s="35"/>
@@ -4640,11 +5072,11 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
@@ -4664,12 +5096,20 @@
       <c r="L61" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M61" s="35"/>
+      <c r="M61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N61" s="35"/>
       <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
+      <c r="P61" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S61" s="35"/>
       <c r="T61" s="35"/>
       <c r="U61" s="35"/>
@@ -4696,11 +5136,11 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -4720,12 +5160,20 @@
       <c r="L62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M62" s="35"/>
+      <c r="M62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N62" s="35"/>
       <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
+      <c r="P62" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S62" s="35"/>
       <c r="T62" s="35"/>
       <c r="U62" s="35"/>
@@ -4752,11 +5200,11 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>20</v>
@@ -4776,12 +5224,20 @@
       <c r="L63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M63" s="35"/>
+      <c r="M63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N63" s="35"/>
       <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
+      <c r="P63" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S63" s="35"/>
       <c r="T63" s="35"/>
       <c r="U63" s="35"/>
@@ -4808,11 +5264,11 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>20</v>
@@ -4832,12 +5288,20 @@
       <c r="L64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M64" s="35"/>
+      <c r="M64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N64" s="35"/>
       <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
+      <c r="P64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S64" s="35"/>
       <c r="T64" s="35"/>
       <c r="U64" s="35"/>
@@ -4864,11 +5328,11 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>20</v>
@@ -4888,12 +5352,20 @@
       <c r="L65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M65" s="35"/>
+      <c r="M65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N65" s="35"/>
       <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
+      <c r="P65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S65" s="35"/>
       <c r="T65" s="35"/>
       <c r="U65" s="35"/>
@@ -4924,7 +5396,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>21</v>
@@ -4944,12 +5416,20 @@
       <c r="L66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M66" s="35"/>
+      <c r="M66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N66" s="35"/>
       <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
+      <c r="P66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S66" s="35"/>
       <c r="T66" s="35"/>
       <c r="U66" s="35"/>
@@ -4976,7 +5456,7 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
@@ -5000,12 +5480,20 @@
       <c r="L67" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M67" s="35"/>
+      <c r="M67" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N67" s="35"/>
       <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
+      <c r="P67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S67" s="35"/>
       <c r="T67" s="35"/>
       <c r="U67" s="35"/>
@@ -5032,11 +5520,11 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>20</v>
@@ -5056,12 +5544,20 @@
       <c r="L68" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M68" s="35"/>
+      <c r="M68" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N68" s="35"/>
       <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
+      <c r="P68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S68" s="35"/>
       <c r="T68" s="35"/>
       <c r="U68" s="35"/>
@@ -5092,7 +5588,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5112,12 +5608,20 @@
       <c r="L69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M69" s="35"/>
+      <c r="M69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N69" s="35"/>
       <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
+      <c r="P69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S69" s="35"/>
       <c r="T69" s="35"/>
       <c r="U69" s="35"/>
@@ -5148,7 +5652,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -5168,12 +5672,20 @@
       <c r="L70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M70" s="35"/>
+      <c r="M70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N70" s="35"/>
       <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
+      <c r="P70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S70" s="35"/>
       <c r="T70" s="35"/>
       <c r="U70" s="35"/>
@@ -5200,11 +5712,11 @@
       </c>
       <c r="E71" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -5224,12 +5736,20 @@
       <c r="L71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M71" s="35"/>
+      <c r="M71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N71" s="35"/>
       <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
+      <c r="P71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R71" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S71" s="35"/>
       <c r="T71" s="35"/>
       <c r="U71" s="35"/>
@@ -5256,11 +5776,11 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>20</v>
@@ -5280,12 +5800,20 @@
       <c r="L72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M72" s="35"/>
+      <c r="M72" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N72" s="35"/>
       <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
+      <c r="P72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S72" s="35"/>
       <c r="T72" s="35"/>
       <c r="U72" s="35"/>
@@ -5312,11 +5840,11 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
@@ -5336,12 +5864,20 @@
       <c r="L73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M73" s="35"/>
+      <c r="M73" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N73" s="35"/>
       <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
+      <c r="P73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S73" s="35"/>
       <c r="T73" s="35"/>
       <c r="U73" s="35"/>
@@ -5368,11 +5904,11 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>20</v>
@@ -5392,12 +5928,20 @@
       <c r="L74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M74" s="35"/>
+      <c r="M74" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N74" s="35"/>
       <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
+      <c r="P74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S74" s="35"/>
       <c r="T74" s="35"/>
       <c r="U74" s="35"/>
@@ -5424,11 +5968,11 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -5448,12 +5992,20 @@
       <c r="L75" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M75" s="35"/>
+      <c r="M75" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="N75" s="35"/>
       <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
+      <c r="P75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R75" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S75" s="35"/>
       <c r="T75" s="35"/>
       <c r="U75" s="35"/>
@@ -5480,11 +6032,11 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -5504,12 +6056,20 @@
       <c r="L76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M76" s="35"/>
+      <c r="M76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N76" s="35"/>
       <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
+      <c r="P76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S76" s="35"/>
       <c r="T76" s="35"/>
       <c r="U76" s="35"/>
@@ -5540,7 +6100,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>21</v>
@@ -5560,12 +6120,20 @@
       <c r="L77" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M77" s="35"/>
+      <c r="M77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N77" s="35"/>
       <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
+      <c r="P77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S77" s="35"/>
       <c r="T77" s="35"/>
       <c r="U77" s="35"/>
@@ -5596,7 +6164,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>20</v>
@@ -5616,12 +6184,20 @@
       <c r="L78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M78" s="35"/>
+      <c r="M78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N78" s="35"/>
       <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="35"/>
+      <c r="P78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S78" s="35"/>
       <c r="T78" s="35"/>
       <c r="U78" s="35"/>
@@ -5648,11 +6224,11 @@
       </c>
       <c r="E79" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>20</v>
@@ -5672,12 +6248,20 @@
       <c r="L79" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M79" s="35"/>
+      <c r="M79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N79" s="35"/>
       <c r="O79" s="35"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="35"/>
-      <c r="R79" s="35"/>
+      <c r="P79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R79" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S79" s="35"/>
       <c r="T79" s="35"/>
       <c r="U79" s="35"/>
@@ -5708,7 +6292,7 @@
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G80" s="28" t="s">
         <v>20</v>
@@ -5728,12 +6312,20 @@
       <c r="L80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M80" s="35"/>
+      <c r="M80" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N80" s="35"/>
       <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
+      <c r="P80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R80" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S80" s="35"/>
       <c r="T80" s="35"/>
       <c r="U80" s="35"/>
@@ -5760,11 +6352,11 @@
       </c>
       <c r="E81" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G81" s="28" t="s">
         <v>20</v>
@@ -5784,12 +6376,20 @@
       <c r="L81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M81" s="35"/>
+      <c r="M81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N81" s="35"/>
       <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="35"/>
-      <c r="R81" s="35"/>
+      <c r="P81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q81" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S81" s="35"/>
       <c r="T81" s="35"/>
       <c r="U81" s="35"/>
@@ -5820,7 +6420,7 @@
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G82" s="28" t="s">
         <v>21</v>
@@ -5840,12 +6440,20 @@
       <c r="L82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M82" s="35"/>
+      <c r="M82" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="N82" s="35"/>
       <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
+      <c r="P82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R82" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="S82" s="35"/>
       <c r="T82" s="35"/>
       <c r="U82" s="35"/>

--- a/attendance-files/SM-II/SM-II (E) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (E) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="172">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
@@ -1644,7 +1644,9 @@
         <v>20</v>
       </c>
       <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
+      <c r="O7" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P7" s="29" t="s">
         <v>20</v>
       </c>
@@ -1684,7 +1686,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1708,7 +1710,9 @@
         <v>20</v>
       </c>
       <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
+      <c r="O8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P8" s="29" t="s">
         <v>20</v>
       </c>
@@ -1748,7 +1752,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>21</v>
@@ -1772,7 +1776,9 @@
         <v>21</v>
       </c>
       <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
+      <c r="O9" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P9" s="29" t="s">
         <v>21</v>
       </c>
@@ -1812,7 +1818,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1836,7 +1842,9 @@
         <v>20</v>
       </c>
       <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
+      <c r="O10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P10" s="29" t="s">
         <v>20</v>
       </c>
@@ -1876,7 +1884,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1900,7 +1908,9 @@
         <v>20</v>
       </c>
       <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
+      <c r="O11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P11" s="29" t="s">
         <v>20</v>
       </c>
@@ -1940,7 +1950,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -1964,7 +1974,9 @@
         <v>21</v>
       </c>
       <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
+      <c r="O12" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P12" s="29" t="s">
         <v>20</v>
       </c>
@@ -2004,7 +2016,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -2028,7 +2040,9 @@
         <v>21</v>
       </c>
       <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
+      <c r="O13" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P13" s="29" t="s">
         <v>21</v>
       </c>
@@ -2068,7 +2082,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2092,7 +2106,9 @@
         <v>20</v>
       </c>
       <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
+      <c r="O14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P14" s="29" t="s">
         <v>20</v>
       </c>
@@ -2128,7 +2144,7 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
@@ -2156,7 +2172,9 @@
         <v>21</v>
       </c>
       <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
+      <c r="O15" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P15" s="29" t="s">
         <v>21</v>
       </c>
@@ -2192,7 +2210,7 @@
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
@@ -2220,7 +2238,9 @@
         <v>20</v>
       </c>
       <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
+      <c r="O16" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P16" s="29" t="s">
         <v>21</v>
       </c>
@@ -2256,7 +2276,7 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
@@ -2284,7 +2304,9 @@
         <v>20</v>
       </c>
       <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="O17" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P17" s="29" t="s">
         <v>21</v>
       </c>
@@ -2324,7 +2346,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2348,7 +2370,9 @@
         <v>20</v>
       </c>
       <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="O18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P18" s="29" t="s">
         <v>20</v>
       </c>
@@ -2384,7 +2408,7 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
@@ -2412,7 +2436,9 @@
         <v>20</v>
       </c>
       <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
+      <c r="O19" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P19" s="29" t="s">
         <v>21</v>
       </c>
@@ -2452,7 +2478,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2476,7 +2502,9 @@
         <v>20</v>
       </c>
       <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
+      <c r="O20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P20" s="29" t="s">
         <v>21</v>
       </c>
@@ -2516,7 +2544,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>20</v>
@@ -2540,7 +2568,9 @@
         <v>21</v>
       </c>
       <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
+      <c r="O21" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P21" s="29" t="s">
         <v>21</v>
       </c>
@@ -2580,7 +2610,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2604,7 +2634,9 @@
         <v>20</v>
       </c>
       <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
+      <c r="O22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P22" s="29" t="s">
         <v>20</v>
       </c>
@@ -2644,7 +2676,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2668,7 +2700,9 @@
         <v>20</v>
       </c>
       <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
+      <c r="O23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P23" s="29" t="s">
         <v>21</v>
       </c>
@@ -2708,7 +2742,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2732,7 +2766,9 @@
         <v>20</v>
       </c>
       <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
+      <c r="O24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P24" s="29" t="s">
         <v>20</v>
       </c>
@@ -2772,7 +2808,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -2796,7 +2832,9 @@
         <v>21</v>
       </c>
       <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
+      <c r="O25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P25" s="29" t="s">
         <v>20</v>
       </c>
@@ -2836,7 +2874,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -2860,7 +2898,9 @@
         <v>20</v>
       </c>
       <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
+      <c r="O26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P26" s="29" t="s">
         <v>20</v>
       </c>
@@ -2900,7 +2940,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -2924,7 +2964,9 @@
         <v>20</v>
       </c>
       <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
+      <c r="O27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P27" s="29" t="s">
         <v>20</v>
       </c>
@@ -2964,7 +3006,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>20</v>
@@ -2988,7 +3030,9 @@
         <v>21</v>
       </c>
       <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
+      <c r="O28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P28" s="29" t="s">
         <v>20</v>
       </c>
@@ -3028,7 +3072,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -3052,7 +3096,9 @@
         <v>21</v>
       </c>
       <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
+      <c r="O29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P29" s="29" t="s">
         <v>20</v>
       </c>
@@ -3092,7 +3138,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>21</v>
@@ -3116,7 +3162,9 @@
         <v>20</v>
       </c>
       <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
+      <c r="O30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P30" s="29" t="s">
         <v>20</v>
       </c>
@@ -3156,7 +3204,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -3180,7 +3228,9 @@
         <v>20</v>
       </c>
       <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
+      <c r="O31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P31" s="29" t="s">
         <v>20</v>
       </c>
@@ -3220,7 +3270,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -3244,7 +3294,9 @@
         <v>20</v>
       </c>
       <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
+      <c r="O32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P32" s="29" t="s">
         <v>20</v>
       </c>
@@ -3284,7 +3336,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>20</v>
@@ -3308,7 +3360,9 @@
         <v>21</v>
       </c>
       <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
+      <c r="O33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P33" s="29" t="s">
         <v>20</v>
       </c>
@@ -3344,7 +3398,7 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
@@ -3372,7 +3426,9 @@
         <v>20</v>
       </c>
       <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
+      <c r="O34" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P34" s="29" t="s">
         <v>20</v>
       </c>
@@ -3412,7 +3468,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>20</v>
@@ -3436,7 +3492,9 @@
         <v>20</v>
       </c>
       <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
+      <c r="O35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P35" s="29" t="s">
         <v>21</v>
       </c>
@@ -3472,7 +3530,7 @@
       </c>
       <c r="E36" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
@@ -3500,7 +3558,9 @@
         <v>20</v>
       </c>
       <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
+      <c r="O36" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P36" s="29" t="s">
         <v>21</v>
       </c>
@@ -3536,7 +3596,7 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
@@ -3564,7 +3624,9 @@
         <v>20</v>
       </c>
       <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
+      <c r="O37" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P37" s="29" t="s">
         <v>21</v>
       </c>
@@ -3604,7 +3666,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>21</v>
@@ -3628,7 +3690,9 @@
         <v>20</v>
       </c>
       <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
+      <c r="O38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P38" s="29" t="s">
         <v>20</v>
       </c>
@@ -3664,7 +3728,7 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
@@ -3692,7 +3756,9 @@
         <v>20</v>
       </c>
       <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
+      <c r="O39" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P39" s="29" t="s">
         <v>21</v>
       </c>
@@ -3732,7 +3798,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -3756,7 +3822,9 @@
         <v>20</v>
       </c>
       <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
+      <c r="O40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P40" s="29" t="s">
         <v>20</v>
       </c>
@@ -3796,7 +3864,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>21</v>
@@ -3820,7 +3888,9 @@
         <v>20</v>
       </c>
       <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
+      <c r="O41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P41" s="29" t="s">
         <v>20</v>
       </c>
@@ -3860,7 +3930,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -3884,7 +3954,9 @@
         <v>20</v>
       </c>
       <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
+      <c r="O42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P42" s="29" t="s">
         <v>21</v>
       </c>
@@ -3924,7 +3996,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>21</v>
@@ -3948,7 +4020,9 @@
         <v>20</v>
       </c>
       <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
+      <c r="O43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P43" s="29" t="s">
         <v>20</v>
       </c>
@@ -3988,7 +4062,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -4012,7 +4086,9 @@
         <v>20</v>
       </c>
       <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
+      <c r="O44" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P44" s="29" t="s">
         <v>20</v>
       </c>
@@ -4052,7 +4128,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>21</v>
@@ -4076,7 +4152,9 @@
         <v>20</v>
       </c>
       <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
+      <c r="O45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P45" s="29" t="s">
         <v>20</v>
       </c>
@@ -4116,7 +4194,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -4140,7 +4218,9 @@
         <v>20</v>
       </c>
       <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
+      <c r="O46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P46" s="29" t="s">
         <v>20</v>
       </c>
@@ -4180,7 +4260,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -4204,7 +4284,9 @@
         <v>21</v>
       </c>
       <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
+      <c r="O47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P47" s="29" t="s">
         <v>21</v>
       </c>
@@ -4244,7 +4326,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>20</v>
@@ -4268,7 +4350,9 @@
         <v>21</v>
       </c>
       <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
+      <c r="O48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P48" s="29" t="s">
         <v>20</v>
       </c>
@@ -4308,7 +4392,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>20</v>
@@ -4332,7 +4416,9 @@
         <v>21</v>
       </c>
       <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
+      <c r="O49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P49" s="29" t="s">
         <v>20</v>
       </c>
@@ -4372,7 +4458,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -4396,7 +4482,9 @@
         <v>20</v>
       </c>
       <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
+      <c r="O50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P50" s="29" t="s">
         <v>20</v>
       </c>
@@ -4436,7 +4524,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4460,7 +4548,9 @@
         <v>20</v>
       </c>
       <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
+      <c r="O51" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P51" s="29" t="s">
         <v>21</v>
       </c>
@@ -4500,7 +4590,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>21</v>
@@ -4524,7 +4614,9 @@
         <v>21</v>
       </c>
       <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
+      <c r="O52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P52" s="29" t="s">
         <v>20</v>
       </c>
@@ -4564,7 +4656,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>20</v>
@@ -4588,7 +4680,9 @@
         <v>20</v>
       </c>
       <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
+      <c r="O53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P53" s="29" t="s">
         <v>20</v>
       </c>
@@ -4628,7 +4722,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4652,7 +4746,9 @@
         <v>20</v>
       </c>
       <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
+      <c r="O54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P54" s="29" t="s">
         <v>20</v>
       </c>
@@ -4692,7 +4788,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>20</v>
@@ -4716,7 +4812,9 @@
         <v>20</v>
       </c>
       <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
+      <c r="O55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P55" s="29" t="s">
         <v>20</v>
       </c>
@@ -4756,7 +4854,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -4780,7 +4878,9 @@
         <v>20</v>
       </c>
       <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
+      <c r="O56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P56" s="29" t="s">
         <v>20</v>
       </c>
@@ -4820,7 +4920,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>20</v>
@@ -4844,7 +4944,9 @@
         <v>20</v>
       </c>
       <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
+      <c r="O57" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P57" s="29" t="s">
         <v>20</v>
       </c>
@@ -4884,7 +4986,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>20</v>
@@ -4908,7 +5010,9 @@
         <v>20</v>
       </c>
       <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
+      <c r="O58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P58" s="29" t="s">
         <v>21</v>
       </c>
@@ -4948,7 +5052,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -4972,7 +5076,9 @@
         <v>20</v>
       </c>
       <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
+      <c r="O59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P59" s="29" t="s">
         <v>20</v>
       </c>
@@ -5008,7 +5114,7 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
@@ -5036,7 +5142,9 @@
         <v>21</v>
       </c>
       <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
+      <c r="O60" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P60" s="29" t="s">
         <v>20</v>
       </c>
@@ -5076,7 +5184,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
@@ -5100,7 +5208,9 @@
         <v>20</v>
       </c>
       <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
+      <c r="O61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P61" s="29" t="s">
         <v>21</v>
       </c>
@@ -5140,7 +5250,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -5164,7 +5274,9 @@
         <v>20</v>
       </c>
       <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
+      <c r="O62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P62" s="29" t="s">
         <v>21</v>
       </c>
@@ -5204,7 +5316,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>20</v>
@@ -5228,7 +5340,9 @@
         <v>20</v>
       </c>
       <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
+      <c r="O63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P63" s="29" t="s">
         <v>21</v>
       </c>
@@ -5268,7 +5382,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>20</v>
@@ -5292,7 +5406,9 @@
         <v>20</v>
       </c>
       <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
+      <c r="O64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P64" s="29" t="s">
         <v>21</v>
       </c>
@@ -5332,7 +5448,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>20</v>
@@ -5356,7 +5472,9 @@
         <v>20</v>
       </c>
       <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
+      <c r="O65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P65" s="29" t="s">
         <v>21</v>
       </c>
@@ -5392,7 +5510,7 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
@@ -5420,7 +5538,9 @@
         <v>20</v>
       </c>
       <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
+      <c r="O66" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P66" s="29" t="s">
         <v>20</v>
       </c>
@@ -5456,7 +5576,7 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
@@ -5484,7 +5604,9 @@
         <v>21</v>
       </c>
       <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
+      <c r="O67" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P67" s="29" t="s">
         <v>21</v>
       </c>
@@ -5524,7 +5646,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>20</v>
@@ -5548,7 +5670,9 @@
         <v>21</v>
       </c>
       <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
+      <c r="O68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P68" s="29" t="s">
         <v>20</v>
       </c>
@@ -5588,7 +5712,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5612,7 +5736,9 @@
         <v>20</v>
       </c>
       <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
+      <c r="O69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P69" s="29" t="s">
         <v>20</v>
       </c>
@@ -5652,7 +5778,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -5676,7 +5802,9 @@
         <v>20</v>
       </c>
       <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
+      <c r="O70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P70" s="29" t="s">
         <v>20</v>
       </c>
@@ -5716,7 +5844,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -5740,7 +5868,9 @@
         <v>20</v>
       </c>
       <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
+      <c r="O71" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P71" s="29" t="s">
         <v>20</v>
       </c>
@@ -5776,7 +5906,7 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
@@ -5804,7 +5934,9 @@
         <v>21</v>
       </c>
       <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
+      <c r="O72" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P72" s="29" t="s">
         <v>20</v>
       </c>
@@ -5840,7 +5972,7 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
@@ -5868,7 +6000,9 @@
         <v>21</v>
       </c>
       <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
+      <c r="O73" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P73" s="29" t="s">
         <v>20</v>
       </c>
@@ -5908,7 +6042,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>20</v>
@@ -5932,7 +6066,9 @@
         <v>21</v>
       </c>
       <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
+      <c r="O74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P74" s="29" t="s">
         <v>20</v>
       </c>
@@ -5968,7 +6104,7 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
@@ -5996,7 +6132,9 @@
         <v>21</v>
       </c>
       <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
+      <c r="O75" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P75" s="29" t="s">
         <v>20</v>
       </c>
@@ -6036,7 +6174,7 @@
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -6060,7 +6198,9 @@
         <v>20</v>
       </c>
       <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
+      <c r="O76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P76" s="29" t="s">
         <v>21</v>
       </c>
@@ -6100,7 +6240,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>21</v>
@@ -6124,7 +6264,9 @@
         <v>20</v>
       </c>
       <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
+      <c r="O77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P77" s="29" t="s">
         <v>20</v>
       </c>
@@ -6164,7 +6306,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>20</v>
@@ -6188,7 +6330,9 @@
         <v>20</v>
       </c>
       <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
+      <c r="O78" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P78" s="29" t="s">
         <v>20</v>
       </c>
@@ -6228,7 +6372,7 @@
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>20</v>
@@ -6252,7 +6396,9 @@
         <v>20</v>
       </c>
       <c r="N79" s="35"/>
-      <c r="O79" s="35"/>
+      <c r="O79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P79" s="29" t="s">
         <v>20</v>
       </c>
@@ -6292,7 +6438,7 @@
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G80" s="28" t="s">
         <v>20</v>
@@ -6316,7 +6462,9 @@
         <v>20</v>
       </c>
       <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
+      <c r="O80" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P80" s="29" t="s">
         <v>20</v>
       </c>
@@ -6356,7 +6504,7 @@
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G81" s="28" t="s">
         <v>20</v>
@@ -6380,7 +6528,9 @@
         <v>20</v>
       </c>
       <c r="N81" s="35"/>
-      <c r="O81" s="35"/>
+      <c r="O81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P81" s="29" t="s">
         <v>20</v>
       </c>
@@ -6420,7 +6570,7 @@
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G82" s="28" t="s">
         <v>21</v>
@@ -6444,7 +6594,9 @@
         <v>20</v>
       </c>
       <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
+      <c r="O82" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="P82" s="29" t="s">
         <v>20</v>
       </c>

--- a/attendance-files/SM-II/SM-II (E) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (E) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="172">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1656,9 +1656,7 @@
       <c r="R7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
@@ -1684,7 +1682,7 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
@@ -1724,9 +1722,7 @@
       <c r="R8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="S8" s="35"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
       <c r="V8" s="35"/>
@@ -1756,7 +1752,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>21</v>
@@ -1792,9 +1788,7 @@
       <c r="R9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
       <c r="V9" s="35"/>
@@ -1824,7 +1818,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1860,9 +1854,7 @@
       <c r="R10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
@@ -1892,7 +1884,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1928,9 +1920,7 @@
       <c r="R11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S11" s="35"/>
       <c r="T11" s="35"/>
       <c r="U11" s="35"/>
       <c r="V11" s="35"/>
@@ -1956,7 +1946,7 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
@@ -1996,9 +1986,7 @@
       <c r="R12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="S12" s="35"/>
       <c r="T12" s="35"/>
       <c r="U12" s="35"/>
       <c r="V12" s="35"/>
@@ -2028,7 +2016,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -2064,9 +2052,7 @@
       <c r="R13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S13" s="35"/>
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
       <c r="V13" s="35"/>
@@ -2096,7 +2082,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2132,9 +2118,7 @@
       <c r="R14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S14" s="35"/>
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
       <c r="V14" s="35"/>
@@ -2164,7 +2148,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2200,9 +2184,7 @@
       <c r="R15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S15" s="35"/>
       <c r="T15" s="35"/>
       <c r="U15" s="35"/>
       <c r="V15" s="35"/>
@@ -2232,7 +2214,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2268,9 +2250,7 @@
       <c r="R16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S16" s="35"/>
       <c r="T16" s="35"/>
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
@@ -2300,7 +2280,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2336,9 +2316,7 @@
       <c r="R17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S17" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S17" s="35"/>
       <c r="T17" s="35"/>
       <c r="U17" s="35"/>
       <c r="V17" s="35"/>
@@ -2364,7 +2342,7 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
@@ -2404,9 +2382,7 @@
       <c r="R18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="S18" s="35"/>
       <c r="T18" s="35"/>
       <c r="U18" s="35"/>
       <c r="V18" s="35"/>
@@ -2436,7 +2412,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>20</v>
@@ -2472,9 +2448,7 @@
       <c r="R19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S19" s="35"/>
       <c r="T19" s="35"/>
       <c r="U19" s="35"/>
       <c r="V19" s="35"/>
@@ -2504,7 +2478,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2540,9 +2514,7 @@
       <c r="R20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S20" s="35"/>
       <c r="T20" s="35"/>
       <c r="U20" s="35"/>
       <c r="V20" s="35"/>
@@ -2572,7 +2544,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>20</v>
@@ -2608,9 +2580,7 @@
       <c r="R21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
@@ -2640,7 +2610,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2676,9 +2646,7 @@
       <c r="R22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S22" s="35"/>
       <c r="T22" s="35"/>
       <c r="U22" s="35"/>
       <c r="V22" s="35"/>
@@ -2708,7 +2676,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2744,9 +2712,7 @@
       <c r="R23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S23" s="35"/>
       <c r="T23" s="35"/>
       <c r="U23" s="35"/>
       <c r="V23" s="35"/>
@@ -2776,7 +2742,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2812,9 +2778,7 @@
       <c r="R24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S24" s="35"/>
       <c r="T24" s="35"/>
       <c r="U24" s="35"/>
       <c r="V24" s="35"/>
@@ -2844,7 +2808,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -2880,9 +2844,7 @@
       <c r="R25" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S25" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S25" s="35"/>
       <c r="T25" s="35"/>
       <c r="U25" s="35"/>
       <c r="V25" s="35"/>
@@ -2908,7 +2870,7 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
@@ -2948,9 +2910,7 @@
       <c r="R26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="S26" s="35"/>
       <c r="T26" s="35"/>
       <c r="U26" s="35"/>
       <c r="V26" s="35"/>
@@ -2980,7 +2940,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -3016,9 +2976,7 @@
       <c r="R27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S27" s="35"/>
       <c r="T27" s="35"/>
       <c r="U27" s="35"/>
       <c r="V27" s="35"/>
@@ -3044,7 +3002,7 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
@@ -3084,9 +3042,7 @@
       <c r="R28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="S28" s="35"/>
       <c r="T28" s="35"/>
       <c r="U28" s="35"/>
       <c r="V28" s="35"/>
@@ -3116,7 +3072,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -3152,9 +3108,7 @@
       <c r="R29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S29" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
       <c r="V29" s="35"/>
@@ -3184,7 +3138,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>21</v>
@@ -3220,9 +3174,7 @@
       <c r="R30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S30" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S30" s="35"/>
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
       <c r="V30" s="35"/>
@@ -3252,7 +3204,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -3288,9 +3240,7 @@
       <c r="R31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S31" s="35"/>
       <c r="T31" s="35"/>
       <c r="U31" s="35"/>
       <c r="V31" s="35"/>
@@ -3316,7 +3266,7 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
@@ -3356,9 +3306,7 @@
       <c r="R32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="S32" s="35"/>
       <c r="T32" s="35"/>
       <c r="U32" s="35"/>
       <c r="V32" s="35"/>
@@ -3384,7 +3332,7 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
@@ -3424,9 +3372,7 @@
       <c r="R33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="S33" s="35"/>
       <c r="T33" s="35"/>
       <c r="U33" s="35"/>
       <c r="V33" s="35"/>
@@ -3456,7 +3402,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3492,9 +3438,7 @@
       <c r="R34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S34" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S34" s="35"/>
       <c r="T34" s="35"/>
       <c r="U34" s="35"/>
       <c r="V34" s="35"/>
@@ -3524,7 +3468,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>20</v>
@@ -3560,9 +3504,7 @@
       <c r="R35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S35" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S35" s="35"/>
       <c r="T35" s="35"/>
       <c r="U35" s="35"/>
       <c r="V35" s="35"/>
@@ -3592,7 +3534,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3628,9 +3570,7 @@
       <c r="R36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S36" s="35"/>
       <c r="T36" s="35"/>
       <c r="U36" s="35"/>
       <c r="V36" s="35"/>
@@ -3660,7 +3600,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>20</v>
@@ -3696,9 +3636,7 @@
       <c r="R37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S37" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S37" s="35"/>
       <c r="T37" s="35"/>
       <c r="U37" s="35"/>
       <c r="V37" s="35"/>
@@ -3728,7 +3666,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>21</v>
@@ -3764,9 +3702,7 @@
       <c r="R38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S38" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S38" s="35"/>
       <c r="T38" s="35"/>
       <c r="U38" s="35"/>
       <c r="V38" s="35"/>
@@ -3796,7 +3732,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>20</v>
@@ -3832,9 +3768,7 @@
       <c r="R39" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S39" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S39" s="35"/>
       <c r="T39" s="35"/>
       <c r="U39" s="35"/>
       <c r="V39" s="35"/>
@@ -3864,7 +3798,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -3900,9 +3834,7 @@
       <c r="R40" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S40" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S40" s="35"/>
       <c r="T40" s="35"/>
       <c r="U40" s="35"/>
       <c r="V40" s="35"/>
@@ -3932,7 +3864,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>21</v>
@@ -3968,9 +3900,7 @@
       <c r="R41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S41" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S41" s="35"/>
       <c r="T41" s="35"/>
       <c r="U41" s="35"/>
       <c r="V41" s="35"/>
@@ -4000,7 +3930,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -4036,9 +3966,7 @@
       <c r="R42" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S42" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S42" s="35"/>
       <c r="T42" s="35"/>
       <c r="U42" s="35"/>
       <c r="V42" s="35"/>
@@ -4068,7 +3996,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>21</v>
@@ -4104,9 +4032,7 @@
       <c r="R43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S43" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S43" s="35"/>
       <c r="T43" s="35"/>
       <c r="U43" s="35"/>
       <c r="V43" s="35"/>
@@ -4136,7 +4062,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -4172,9 +4098,7 @@
       <c r="R44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S44" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S44" s="35"/>
       <c r="T44" s="35"/>
       <c r="U44" s="35"/>
       <c r="V44" s="35"/>
@@ -4204,7 +4128,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>21</v>
@@ -4240,9 +4164,7 @@
       <c r="R45" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S45" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S45" s="35"/>
       <c r="T45" s="35"/>
       <c r="U45" s="35"/>
       <c r="V45" s="35"/>
@@ -4268,7 +4190,7 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
@@ -4308,9 +4230,7 @@
       <c r="R46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S46" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="S46" s="35"/>
       <c r="T46" s="35"/>
       <c r="U46" s="35"/>
       <c r="V46" s="35"/>
@@ -4340,7 +4260,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -4376,9 +4296,7 @@
       <c r="R47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S47" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S47" s="35"/>
       <c r="T47" s="35"/>
       <c r="U47" s="35"/>
       <c r="V47" s="35"/>
@@ -4408,7 +4326,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>20</v>
@@ -4444,9 +4362,7 @@
       <c r="R48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S48" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S48" s="35"/>
       <c r="T48" s="35"/>
       <c r="U48" s="35"/>
       <c r="V48" s="35"/>
@@ -4476,7 +4392,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>20</v>
@@ -4512,9 +4428,7 @@
       <c r="R49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S49" s="35"/>
       <c r="T49" s="35"/>
       <c r="U49" s="35"/>
       <c r="V49" s="35"/>
@@ -4544,7 +4458,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -4580,9 +4494,7 @@
       <c r="R50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S50" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S50" s="35"/>
       <c r="T50" s="35"/>
       <c r="U50" s="35"/>
       <c r="V50" s="35"/>
@@ -4612,7 +4524,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4648,9 +4560,7 @@
       <c r="R51" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S51" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S51" s="35"/>
       <c r="T51" s="35"/>
       <c r="U51" s="35"/>
       <c r="V51" s="35"/>
@@ -4680,7 +4590,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>21</v>
@@ -4716,9 +4626,7 @@
       <c r="R52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S52" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S52" s="35"/>
       <c r="T52" s="35"/>
       <c r="U52" s="35"/>
       <c r="V52" s="35"/>
@@ -4744,7 +4652,7 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
@@ -4784,9 +4692,7 @@
       <c r="R53" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S53" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="S53" s="35"/>
       <c r="T53" s="35"/>
       <c r="U53" s="35"/>
       <c r="V53" s="35"/>
@@ -4816,7 +4722,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4852,9 +4758,7 @@
       <c r="R54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S54" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S54" s="35"/>
       <c r="T54" s="35"/>
       <c r="U54" s="35"/>
       <c r="V54" s="35"/>
@@ -4880,7 +4784,7 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
@@ -4920,9 +4824,7 @@
       <c r="R55" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S55" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="S55" s="35"/>
       <c r="T55" s="35"/>
       <c r="U55" s="35"/>
       <c r="V55" s="35"/>
@@ -4952,7 +4854,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -4988,9 +4890,7 @@
       <c r="R56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S56" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S56" s="35"/>
       <c r="T56" s="35"/>
       <c r="U56" s="35"/>
       <c r="V56" s="35"/>
@@ -5020,7 +4920,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>20</v>
@@ -5056,9 +4956,7 @@
       <c r="R57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S57" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S57" s="35"/>
       <c r="T57" s="35"/>
       <c r="U57" s="35"/>
       <c r="V57" s="35"/>
@@ -5088,7 +4986,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>20</v>
@@ -5124,9 +5022,7 @@
       <c r="R58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S58" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S58" s="35"/>
       <c r="T58" s="35"/>
       <c r="U58" s="35"/>
       <c r="V58" s="35"/>
@@ -5156,7 +5052,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -5192,9 +5088,7 @@
       <c r="R59" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S59" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S59" s="35"/>
       <c r="T59" s="35"/>
       <c r="U59" s="35"/>
       <c r="V59" s="35"/>
@@ -5224,7 +5118,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -5260,9 +5154,7 @@
       <c r="R60" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S60" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S60" s="35"/>
       <c r="T60" s="35"/>
       <c r="U60" s="35"/>
       <c r="V60" s="35"/>
@@ -5292,7 +5184,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
@@ -5328,9 +5220,7 @@
       <c r="R61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S61" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S61" s="35"/>
       <c r="T61" s="35"/>
       <c r="U61" s="35"/>
       <c r="V61" s="35"/>
@@ -5360,7 +5250,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -5396,9 +5286,7 @@
       <c r="R62" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S62" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S62" s="35"/>
       <c r="T62" s="35"/>
       <c r="U62" s="35"/>
       <c r="V62" s="35"/>
@@ -5428,7 +5316,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>20</v>
@@ -5464,9 +5352,7 @@
       <c r="R63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S63" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S63" s="35"/>
       <c r="T63" s="35"/>
       <c r="U63" s="35"/>
       <c r="V63" s="35"/>
@@ -5496,7 +5382,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>20</v>
@@ -5532,9 +5418,7 @@
       <c r="R64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S64" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S64" s="35"/>
       <c r="T64" s="35"/>
       <c r="U64" s="35"/>
       <c r="V64" s="35"/>
@@ -5564,7 +5448,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>20</v>
@@ -5600,9 +5484,7 @@
       <c r="R65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S65" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S65" s="35"/>
       <c r="T65" s="35"/>
       <c r="U65" s="35"/>
       <c r="V65" s="35"/>
@@ -5632,7 +5514,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>21</v>
@@ -5668,9 +5550,7 @@
       <c r="R66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S66" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S66" s="35"/>
       <c r="T66" s="35"/>
       <c r="U66" s="35"/>
       <c r="V66" s="35"/>
@@ -5696,7 +5576,7 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
@@ -5736,9 +5616,7 @@
       <c r="R67" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S67" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="S67" s="35"/>
       <c r="T67" s="35"/>
       <c r="U67" s="35"/>
       <c r="V67" s="35"/>
@@ -5768,7 +5646,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>20</v>
@@ -5804,9 +5682,7 @@
       <c r="R68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S68" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S68" s="35"/>
       <c r="T68" s="35"/>
       <c r="U68" s="35"/>
       <c r="V68" s="35"/>
@@ -5832,7 +5708,7 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
@@ -5872,9 +5748,7 @@
       <c r="R69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S69" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="S69" s="35"/>
       <c r="T69" s="35"/>
       <c r="U69" s="35"/>
       <c r="V69" s="35"/>
@@ -5904,7 +5778,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -5940,9 +5814,7 @@
       <c r="R70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S70" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S70" s="35"/>
       <c r="T70" s="35"/>
       <c r="U70" s="35"/>
       <c r="V70" s="35"/>
@@ -5972,7 +5844,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -6008,9 +5880,7 @@
       <c r="R71" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S71" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S71" s="35"/>
       <c r="T71" s="35"/>
       <c r="U71" s="35"/>
       <c r="V71" s="35"/>
@@ -6040,7 +5910,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>20</v>
@@ -6076,9 +5946,7 @@
       <c r="R72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S72" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S72" s="35"/>
       <c r="T72" s="35"/>
       <c r="U72" s="35"/>
       <c r="V72" s="35"/>
@@ -6108,7 +5976,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
@@ -6144,9 +6012,7 @@
       <c r="R73" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S73" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S73" s="35"/>
       <c r="T73" s="35"/>
       <c r="U73" s="35"/>
       <c r="V73" s="35"/>
@@ -6176,7 +6042,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>20</v>
@@ -6212,9 +6078,7 @@
       <c r="R74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S74" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S74" s="35"/>
       <c r="T74" s="35"/>
       <c r="U74" s="35"/>
       <c r="V74" s="35"/>
@@ -6244,7 +6108,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>20</v>
@@ -6280,9 +6144,7 @@
       <c r="R75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S75" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S75" s="35"/>
       <c r="T75" s="35"/>
       <c r="U75" s="35"/>
       <c r="V75" s="35"/>
@@ -6312,7 +6174,7 @@
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -6348,9 +6210,7 @@
       <c r="R76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S76" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S76" s="35"/>
       <c r="T76" s="35"/>
       <c r="U76" s="35"/>
       <c r="V76" s="35"/>
@@ -6380,7 +6240,7 @@
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>21</v>
@@ -6416,9 +6276,7 @@
       <c r="R77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S77" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S77" s="35"/>
       <c r="T77" s="35"/>
       <c r="U77" s="35"/>
       <c r="V77" s="35"/>
@@ -6448,7 +6306,7 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>20</v>
@@ -6484,9 +6342,7 @@
       <c r="R78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S78" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S78" s="35"/>
       <c r="T78" s="35"/>
       <c r="U78" s="35"/>
       <c r="V78" s="35"/>
@@ -6512,7 +6368,7 @@
       </c>
       <c r="E79" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
@@ -6552,9 +6408,7 @@
       <c r="R79" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S79" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="S79" s="35"/>
       <c r="T79" s="35"/>
       <c r="U79" s="35"/>
       <c r="V79" s="35"/>
@@ -6584,7 +6438,7 @@
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80" s="28" t="s">
         <v>20</v>
@@ -6620,9 +6474,7 @@
       <c r="R80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S80" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S80" s="35"/>
       <c r="T80" s="35"/>
       <c r="U80" s="35"/>
       <c r="V80" s="35"/>
@@ -6652,7 +6504,7 @@
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G81" s="28" t="s">
         <v>20</v>
@@ -6688,9 +6540,7 @@
       <c r="R81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S81" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="S81" s="35"/>
       <c r="T81" s="35"/>
       <c r="U81" s="35"/>
       <c r="V81" s="35"/>
@@ -6716,7 +6566,7 @@
       </c>
       <c r="E82" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
@@ -6756,9 +6606,7 @@
       <c r="R82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S82" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="S82" s="35"/>
       <c r="T82" s="35"/>
       <c r="U82" s="35"/>
       <c r="V82" s="35"/>
